--- a/Shopizer_Individual_Product_Page_Sakshi_Y.xlsx
+++ b/Shopizer_Individual_Product_Page_Sakshi_Y.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\git track\Shopizer\Shopizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B526A-CA41-4FA8-A5EE-3B3FDB0B4EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCEF528-3AEC-4AB3-8008-FA53F3C62F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B65B70A5-824D-4AF6-9221-28B455796BF9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>Tc_id</t>
   </si>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>SC_02_TC_01</t>
-  </si>
-  <si>
-    <t>Check functionality of rating can be giving to the 
-product.</t>
   </si>
   <si>
     <t>1.User must have a mobile or computer.
@@ -290,6 +286,22 @@
   </si>
   <si>
     <t>Check if image in opening when clicked.</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Nooo</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Check functionality of ratings &amp; reviews can be giving to the 
+product.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -771,296 +783,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA00E0D4-960D-4EB6-8550-031597CBBCD7}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="35.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="35.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,104 +1122,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1191,6 +1228,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4261C012905A7429EEAE0175F0B308C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a1668bd45395aa4e7106fcf958f3064b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9465699d-b859-4ad6-ab8c-507a684d99d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f77472e7f07b26b0133d681acc3c98c" ns2:_="">
     <xsd:import namespace="9465699d-b859-4ad6-ab8c-507a684d99d6"/>
@@ -1354,22 +1406,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{371668BD-08C2-410E-A43D-E33D224B7E31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{697C2B8E-57C7-4DE5-A16F-ACC76BD9A9B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76AEE440-7F31-4E44-8A86-C78B2725B3CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,21 +1439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{697C2B8E-57C7-4DE5-A16F-ACC76BD9A9B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{371668BD-08C2-410E-A43D-E33D224B7E31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>